--- a/medicine/Enfance/Le_Pays_des_enfants_perdus/Le_Pays_des_enfants_perdus.xlsx
+++ b/medicine/Enfance/Le_Pays_des_enfants_perdus/Le_Pays_des_enfants_perdus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Pays des enfants perdus est un téléfilm français réalisé par Francis Girod, sorti en 2003.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette œuvre de fiction emprunte sa trame à des faits historiques réels et évoque le transfert d'enfants réunionnais en métropole dans un objectif de lutte contre l'exode rural. Les enfants victimes de ce transfert sont communément appelés Enfants de la Creuse.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scénario : Philippe Madral et Marc Pivois
 Dialogue : Philippe Madral
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gérard Rinaldi : monsieur Bardoux
 Mathieu Cham : Isidore
